--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试/测试用例/前端APP/因卓测试用例.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试/测试用例/前端APP/因卓测试用例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段一测试用例\前端APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段一测试\测试用例\前端APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="880">
   <si>
     <t>所属模块</t>
   </si>
@@ -4251,6 +4251,14 @@
   </si>
   <si>
     <t>另外，第一轮测试后，需要补充计数的地方的测试用例。比如教师端组卷数、收藏的试题数；学生端已做题的数目、已攻克的试题的数目、已收藏的试题的数目。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要学生作答</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4412,10 +4420,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4741,7 +4749,7 @@
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="51.21875" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,7 +4795,7 @@
         <v>332</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>867</v>
       </c>
       <c r="H2" s="3"/>
@@ -4807,7 +4815,7 @@
         <v>335</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
@@ -4825,7 +4833,7 @@
         <v>339</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -4843,7 +4851,7 @@
         <v>343</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4878,7 +4886,7 @@
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>868</v>
       </c>
     </row>
@@ -5457,7 +5465,7 @@
       <c r="E47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="20" t="s">
         <v>876</v>
       </c>
     </row>
@@ -5547,7 +5555,7 @@
       <c r="E53" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="20" t="s">
         <v>870</v>
       </c>
     </row>
@@ -5825,7 +5833,7 @@
       <c r="E72" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G72" s="20" t="s">
         <v>871</v>
       </c>
     </row>
@@ -6092,7 +6100,7 @@
       <c r="E90" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" s="20" t="s">
         <v>872</v>
       </c>
     </row>
@@ -7427,7 +7435,7 @@
       <c r="E183" t="s">
         <v>199</v>
       </c>
-      <c r="G183" s="21" t="s">
+      <c r="G183" s="22" t="s">
         <v>873</v>
       </c>
     </row>
@@ -7444,7 +7452,7 @@
       <c r="E184" t="s">
         <v>199</v>
       </c>
-      <c r="G184" s="21"/>
+      <c r="G184" s="22"/>
     </row>
     <row r="185" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B185" s="6" t="s">
@@ -7459,7 +7467,7 @@
       <c r="E185" t="s">
         <v>199</v>
       </c>
-      <c r="G185" s="21"/>
+      <c r="G185" s="22"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
@@ -7474,7 +7482,7 @@
       <c r="E186" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="G186" s="21"/>
+      <c r="G186" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7492,10 +7500,10 @@
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8907,7 +8915,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>650</v>
       </c>
@@ -8921,7 +8929,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>654</v>
       </c>
@@ -8929,7 +8937,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>658</v>
       </c>
@@ -8942,8 +8950,11 @@
       <c r="E99" s="10" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H99" s="10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>660</v>
       </c>
@@ -8956,8 +8967,11 @@
       <c r="E100" s="10" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H100" s="10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>663</v>
       </c>
@@ -8970,8 +8984,11 @@
       <c r="E101" s="10" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H101" s="10" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>666</v>
       </c>
@@ -8985,7 +9002,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>669</v>
       </c>
@@ -8999,7 +9016,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>672</v>
       </c>
@@ -9013,7 +9030,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>675</v>
       </c>
@@ -9027,7 +9044,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>678</v>
       </c>
@@ -9041,7 +9058,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>681</v>
       </c>
@@ -9055,7 +9072,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>685</v>
       </c>
@@ -9069,7 +9086,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="115.2" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>689</v>
       </c>
@@ -9083,7 +9100,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>693</v>
       </c>
@@ -9091,7 +9108,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>697</v>
       </c>
@@ -9108,7 +9125,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
         <v>699</v>
       </c>

--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试/测试用例/前端APP/因卓测试用例.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试/测试用例/前端APP/因卓测试用例.xlsx
@@ -15,7 +15,7 @@
     <sheet name="卓学APP" sheetId="3" r:id="rId1"/>
     <sheet name="卓师APP" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -7500,10 +7500,10 @@
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
